--- a/documents/接口及协议/HttpResponse协议.xlsx
+++ b/documents/接口及协议/HttpResponse协议.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="httpresponse" sheetId="1" r:id="rId1"/>
     <sheet name="状态码" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="权限状态码" sheetId="3" r:id="rId3"/>
+    <sheet name="可处理类状态码" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>status</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,14 +35,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>httpresponsebase:HttpResponse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>results</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>状态码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -62,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>权限错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -90,10 +79,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>尚未登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,6 +92,34 @@
   </si>
   <si>
     <t>登录失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpresponsebase:ConvertToJson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询错误通用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证及权限错误</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +534,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,7 +545,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -558,10 +571,10 @@
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -579,7 +592,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -591,13 +604,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -605,38 +618,38 @@
         <v>1000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,7 +677,7 @@
         <v>2001</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -672,7 +685,7 @@
         <v>2002</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -680,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -688,11 +701,53 @@
         <v>2004</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>3000</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
 </file>